--- a/src/test/resources/TestDataHospice.xlsx
+++ b/src/test/resources/TestDataHospice.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIGITAL\eclipse-workspace\com.hms.hospice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E8C0AA-F668-495F-93CF-C138DE5CA616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{419CE51B-2087-4EDF-89DE-C81DC296DC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="1608" windowWidth="17676" windowHeight="9228" firstSheet="1" activeTab="1" xr2:uid="{DBC6936C-F48E-44ED-935D-93D9D7FC5FB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DBC6936C-F48E-44ED-935D-93D9D7FC5FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="AddMedicalHistory" sheetId="1" r:id="rId1"/>
     <sheet name="AdminChangePassword" sheetId="2" r:id="rId2"/>
-    <sheet name="ConsultancyFees" sheetId="3" r:id="rId3"/>
-    <sheet name="PatientUpdateHistory" sheetId="4" r:id="rId4"/>
-    <sheet name="AddDoctor" sheetId="5" r:id="rId5"/>
-    <sheet name="AdminLoginCredientials" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="veg" sheetId="8" r:id="rId3"/>
+    <sheet name="ConsultancyFees" sheetId="3" r:id="rId4"/>
+    <sheet name="PatientUpdateHistory" sheetId="4" r:id="rId5"/>
+    <sheet name="AddDoctor" sheetId="5" r:id="rId6"/>
+    <sheet name="AdminLoginCredientials" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>bp</t>
   </si>
@@ -163,12 +165,31 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cut &amp; Peeled Veggies</t>
+  </si>
+  <si>
+    <t>Cut Fruit, Tender Coconut</t>
+  </si>
+  <si>
+    <t>Fresh Juices &amp; Milkshakes</t>
+  </si>
+  <si>
+    <t>Fresh Salads &amp; Sprouts</t>
+  </si>
+  <si>
+    <t>Recipe Packs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +598,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -590,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBDF9B6-3793-4F7E-B779-1C89FA623C68}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -631,6 +652,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5128E01-27EB-4737-9623-5E383E881784}">
+  <dimension ref="C1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A58871-753D-4874-AAE2-354602089C8D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -653,7 +742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C688B1-82F9-46FB-B99F-5201608662BD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -664,18 +753,18 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -683,7 +772,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -692,7 +781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7864B476-E399-4105-8787-62AC9C5E8409}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -706,7 +795,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -720,7 +809,7 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>27</v>
       </c>
     </row>
@@ -764,7 +853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCED240-0DAD-445D-B7DD-81D7C9FD604C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -775,15 +864,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -791,15 +880,15 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -815,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EDBD7D-B1C4-45F1-8C13-B477EFAEA569}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -826,26 +915,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>43</v>
       </c>
     </row>
